--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptthanh\Desktop\openstack-queens-labs\tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="IP-Planning" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>Subnet mask</t>
-  </si>
-  <si>
-    <t>Default Gateway</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Cinder</t>
   </si>
@@ -36,9 +32,6 @@
     <t>Swift1</t>
   </si>
   <si>
-    <t>IP Address</t>
-  </si>
-  <si>
     <t>255.255.255.0</t>
   </si>
   <si>
@@ -63,9 +56,6 @@
     <t xml:space="preserve">/dev/sda </t>
   </si>
   <si>
-    <t>/dev/sdc</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -75,22 +65,9 @@
     <t>+4CPU</t>
   </si>
   <si>
-    <t>CTL</t>
-  </si>
-  <si>
-    <t>COM1</t>
-  </si>
-  <si>
-    <t>Monitor 
-Logging</t>
-  </si>
-  <si>
     <t>Hostname</t>
   </si>
   <si>
-    <t>monlog</t>
-  </si>
-  <si>
     <t>controller</t>
   </si>
   <si>
@@ -103,83 +80,103 @@
     <t>swift2</t>
   </si>
   <si>
-    <t>ens3
+    <t>+6GB</t>
+  </si>
+  <si>
+    <t>+60GB</t>
+  </si>
+  <si>
+    <t>Requirement Hardware</t>
+  </si>
+  <si>
+    <t>172.17.0.30</t>
+  </si>
+  <si>
+    <t>172.17.0.40</t>
+  </si>
+  <si>
+    <t>172.17.0.41</t>
+  </si>
+  <si>
+    <t>+30GB</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>eth0
 (Management + API network)</t>
   </si>
   <si>
-    <t>ens4
-(Provider Network
-Host and VMs access Internet)</t>
-  </si>
-  <si>
-    <t>+6GB</t>
-  </si>
-  <si>
-    <t>+60GB</t>
-  </si>
-  <si>
-    <t>Role Nodes</t>
-  </si>
-  <si>
-    <t>COM2</t>
-  </si>
-  <si>
-    <t>Requirement Hardware</t>
-  </si>
-  <si>
-    <t>ens5
-(Self Network)</t>
-  </si>
-  <si>
-    <t>192.168.81.9</t>
-  </si>
-  <si>
-    <t>192.168.81.30</t>
-  </si>
-  <si>
-    <t>192.168.81.31</t>
-  </si>
-  <si>
-    <t>192.168.81.40</t>
-  </si>
-  <si>
-    <t>192.168.81.41</t>
-  </si>
-  <si>
-    <t>192.168.81.1</t>
-  </si>
-  <si>
-    <t>172.17.0.9</t>
-  </si>
-  <si>
-    <t>172.17.0.30</t>
-  </si>
-  <si>
-    <t>172.17.0.31</t>
-  </si>
-  <si>
-    <t>172.17.0.40</t>
-  </si>
-  <si>
-    <t>172.17.0.41</t>
-  </si>
-  <si>
-    <t>172.17.1.30</t>
-  </si>
-  <si>
-    <t>172.17.1.31</t>
-  </si>
-  <si>
-    <t>+30GB</t>
-  </si>
-  <si>
-    <t>Storage</t>
+    <t>172.25.234.90/24</t>
+  </si>
+  <si>
+    <t>172.25.234.100/24</t>
+  </si>
+  <si>
+    <t>172.25.234.101/24</t>
+  </si>
+  <si>
+    <t>eth1
+(Self Network / XVLAN)</t>
+  </si>
+  <si>
+    <t>eth2
+(Provider Network, External network)</t>
+  </si>
+  <si>
+    <t>192.168.81.165/24</t>
+  </si>
+  <si>
+    <t>192.168.81.166/24</t>
+  </si>
+  <si>
+    <t>192.168.81.167/24</t>
+  </si>
+  <si>
+    <t>10.10.20.90/24</t>
+  </si>
+  <si>
+    <t>10.10.20.100/24</t>
+  </si>
+  <si>
+    <t>10.10.20.101/24</t>
+  </si>
+  <si>
+    <t>BLOCK1</t>
+  </si>
+  <si>
+    <t>COMPUTE2</t>
+  </si>
+  <si>
+    <t>COMPUTE1</t>
+  </si>
+  <si>
+    <t>CONTROLLER</t>
+  </si>
+  <si>
+    <t>block1</t>
+  </si>
+  <si>
+    <t>172.25.234.102/24</t>
+  </si>
+  <si>
+    <t>10.10.20.102/24</t>
+  </si>
+  <si>
+    <t>+100GB</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dev/sdc </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -380,11 +377,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,21 +444,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,23 +459,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -447,40 +474,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -577,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -754,7 +790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,420 +801,362 @@
   <dimension ref="C4:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="3:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="C5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="3:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="13" t="s">
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="I7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="J7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="23"/>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="25"/>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
-      <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="24" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="17" t="s">
-        <v>47</v>
-      </c>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="25"/>
-      <c r="D14" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="D14" s="26"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="25"/>
-      <c r="D15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="31" t="s">
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="15"/>
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="18"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C13:C15"/>
+  <mergeCells count="21">
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
     <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C7:D9"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
